--- a/src/templates/score.xlsx
+++ b/src/templates/score.xlsx
@@ -45,10 +45,10 @@
     <t>${table:score}</t>
   </si>
   <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>${table:std.gender}</t>
+    <t>Lớp</t>
+  </si>
+  <si>
+    <t>${table:class}</t>
   </si>
 </sst>
 </file>
@@ -113,13 +113,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -432,45 +432,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42.6" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
